--- a/docs/assets/cursos/EP/LOQ4225.xlsx
+++ b/docs/assets/cursos/EP/LOQ4225.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2021</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -79,7 +79,7 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840560 - Marco Antonio Carvalho Pereira</t>
+    <t>11079086 - Herlandí de Souza Andrade</t>
   </si>
   <si>
     <t>Programa resumido:</t>
@@ -133,13 +133,13 @@
     <t>Critério:</t>
   </si>
   <si>
-    <t>Média aritmética de duas provas teóricas.</t>
+    <t>Média Aritmética das atividades avaliativas realizadas.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média aritmética da nota final obtida pelo aluno durante o semestre e da nota obtida na Prova de Recuperação.</t>
+    <t>Média aritmética da nota final obtida pelo aluno durante o semestre e da nota obtida na Prova de Recuperação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
@@ -157,6 +157,10 @@
   </si>
   <si>
     <t xml:space="preserve">LOQ4205 -  Sistemas Produtivos II  (Requisito fraco)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOQ4240 -  Administração e Organização II  (Requisito fraco)
 </t>
   </si>
 </sst>
@@ -513,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -740,6 +744,14 @@
         <v>38</v>
       </c>
     </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
